--- a/Assets/Data/PrizeSets.xlsx
+++ b/Assets/Data/PrizeSets.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="40">
   <si>
     <t>Id</t>
   </si>
@@ -142,10 +142,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -156,13 +156,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -171,16 +173,37 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,23 +225,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -234,29 +271,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,30 +293,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,7 +309,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,7 +345,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,7 +381,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,55 +441,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,43 +465,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,43 +489,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,17 +503,52 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,50 +568,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,13 +586,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,145 +608,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1076,10 +1076,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F105"/>
+  <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -1304,36 +1304,36 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>113</v>
+        <v>252</v>
       </c>
       <c r="B14">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>252</v>
+        <v>1001</v>
       </c>
       <c r="B15">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1387,24 +1387,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:5">
       <c r="A19">
-        <v>2041</v>
+        <v>2001</v>
       </c>
       <c r="B19">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1412,16 +1409,16 @@
         <v>2041</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C20">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F20" t="s">
         <v>20</v>
@@ -1429,19 +1426,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B21">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F21" t="s">
         <v>20</v>
@@ -1452,16 +1449,16 @@
         <v>2042</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C22">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F22" t="s">
         <v>20</v>
@@ -1472,36 +1469,39 @@
         <v>2042</v>
       </c>
       <c r="B23">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D23">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:6">
       <c r="A24">
-        <v>2101</v>
+        <v>2042</v>
       </c>
       <c r="B24">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E24" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="F24" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1509,33 +1509,33 @@
         <v>2101</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C25">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="B26">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1543,16 +1543,16 @@
         <v>2102</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C27">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1560,16 +1560,16 @@
         <v>2102</v>
       </c>
       <c r="B28">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1577,7 +1577,7 @@
         <v>2102</v>
       </c>
       <c r="B29">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -1586,24 +1586,24 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>3041</v>
+        <v>2102</v>
       </c>
       <c r="B30">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1611,33 +1611,33 @@
         <v>3041</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C31">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>3042</v>
+        <v>3041</v>
       </c>
       <c r="B32">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1645,16 +1645,16 @@
         <v>3042</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C33">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1662,33 +1662,33 @@
         <v>3042</v>
       </c>
       <c r="B34">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D34">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>3101</v>
+        <v>3042</v>
       </c>
       <c r="B35">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1696,33 +1696,33 @@
         <v>3101</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C36">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>3102</v>
+        <v>3101</v>
       </c>
       <c r="B37">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C37">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1730,16 +1730,16 @@
         <v>3102</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C38">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1747,16 +1747,16 @@
         <v>3102</v>
       </c>
       <c r="B39">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="C39">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1764,7 +1764,7 @@
         <v>3102</v>
       </c>
       <c r="B40">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -1773,24 +1773,24 @@
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>4041</v>
+        <v>3102</v>
       </c>
       <c r="B41">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1798,33 +1798,33 @@
         <v>4041</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C42">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>4042</v>
+        <v>4041</v>
       </c>
       <c r="B43">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1832,16 +1832,16 @@
         <v>4042</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C44">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1849,33 +1849,33 @@
         <v>4042</v>
       </c>
       <c r="B45">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D45">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>4101</v>
+        <v>4042</v>
       </c>
       <c r="B46">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C46">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="E46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1883,33 +1883,33 @@
         <v>4101</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C47">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>4102</v>
+        <v>4101</v>
       </c>
       <c r="B48">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C48">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1917,16 +1917,16 @@
         <v>4102</v>
       </c>
       <c r="B49">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C49">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1934,16 +1934,16 @@
         <v>4102</v>
       </c>
       <c r="B50">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="C50">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1951,7 +1951,7 @@
         <v>4102</v>
       </c>
       <c r="B51">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -1960,24 +1960,24 @@
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>5041</v>
+        <v>4102</v>
       </c>
       <c r="B52">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1985,33 +1985,33 @@
         <v>5041</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C53">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="B54">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C54">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2019,16 +2019,16 @@
         <v>5042</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C55">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2036,33 +2036,33 @@
         <v>5042</v>
       </c>
       <c r="B56">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D56">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>5101</v>
+        <v>5042</v>
       </c>
       <c r="B57">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C57">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="E57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2070,33 +2070,33 @@
         <v>5101</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C58">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>5102</v>
+        <v>5101</v>
       </c>
       <c r="B59">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C59">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2104,16 +2104,16 @@
         <v>5102</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C60">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2121,16 +2121,16 @@
         <v>5102</v>
       </c>
       <c r="B61">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="C61">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2138,7 +2138,7 @@
         <v>5102</v>
       </c>
       <c r="B62">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C62">
         <v>5</v>
@@ -2147,24 +2147,24 @@
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>6021</v>
+        <v>5102</v>
       </c>
       <c r="B63">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C63">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2172,33 +2172,33 @@
         <v>6021</v>
       </c>
       <c r="B64">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C64">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>6022</v>
+        <v>6021</v>
       </c>
       <c r="B65">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C65">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2206,33 +2206,33 @@
         <v>6022</v>
       </c>
       <c r="B66">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C66">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>6031</v>
+        <v>6022</v>
       </c>
       <c r="B67">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C67">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2240,16 +2240,16 @@
         <v>6031</v>
       </c>
       <c r="B68">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C68">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2257,33 +2257,33 @@
         <v>6031</v>
       </c>
       <c r="B69">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D69">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>6101</v>
+        <v>6031</v>
       </c>
       <c r="B70">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C70">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="E70" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2291,33 +2291,33 @@
         <v>6101</v>
       </c>
       <c r="B71">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>11020</v>
+        <v>6101</v>
       </c>
       <c r="B72">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2325,33 +2325,33 @@
         <v>11020</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C73">
-        <v>11020</v>
+        <v>1</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>11030</v>
+        <v>11020</v>
       </c>
       <c r="B74">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>11020</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2359,33 +2359,33 @@
         <v>11030</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C75">
-        <v>11030</v>
+        <v>1</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>11040</v>
+        <v>11030</v>
       </c>
       <c r="B76">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>11030</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2393,33 +2393,33 @@
         <v>11040</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C77">
-        <v>11040</v>
+        <v>1</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>12020</v>
+        <v>11040</v>
       </c>
       <c r="B78">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>11040</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2427,33 +2427,33 @@
         <v>12020</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C79">
-        <v>12020</v>
+        <v>1</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>12030</v>
+        <v>12020</v>
       </c>
       <c r="B80">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>12020</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2461,33 +2461,33 @@
         <v>12030</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C81">
-        <v>12030</v>
+        <v>1</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>12040</v>
+        <v>12030</v>
       </c>
       <c r="B82">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>12030</v>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2495,33 +2495,33 @@
         <v>12040</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C83">
-        <v>12040</v>
+        <v>1</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>13020</v>
+        <v>12040</v>
       </c>
       <c r="B84">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>12040</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2529,33 +2529,33 @@
         <v>13020</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C85">
-        <v>13020</v>
+        <v>1</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>13030</v>
+        <v>13020</v>
       </c>
       <c r="B86">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>13020</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2563,33 +2563,33 @@
         <v>13030</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C87">
-        <v>13030</v>
+        <v>1</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>13040</v>
+        <v>13030</v>
       </c>
       <c r="B88">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>13030</v>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
       <c r="E88" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2597,33 +2597,33 @@
         <v>13040</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C89">
-        <v>13040</v>
+        <v>1</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>14010</v>
+        <v>13040</v>
       </c>
       <c r="B90">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>13040</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
       <c r="E90" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2631,33 +2631,33 @@
         <v>14010</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C91">
-        <v>14010</v>
+        <v>1</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="E91" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>14020</v>
+        <v>14010</v>
       </c>
       <c r="B92">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>14010</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
       <c r="E92" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2665,33 +2665,33 @@
         <v>14020</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C93">
-        <v>14020</v>
+        <v>1</v>
       </c>
       <c r="D93">
         <v>0</v>
       </c>
       <c r="E93" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>14030</v>
+        <v>14020</v>
       </c>
       <c r="B94">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>14020</v>
       </c>
       <c r="D94">
         <v>0</v>
       </c>
       <c r="E94" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2699,33 +2699,33 @@
         <v>14030</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C95">
-        <v>14030</v>
+        <v>1</v>
       </c>
       <c r="D95">
         <v>0</v>
       </c>
       <c r="E95" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>15020</v>
+        <v>14030</v>
       </c>
       <c r="B96">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>14030</v>
       </c>
       <c r="D96">
         <v>0</v>
       </c>
       <c r="E96" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2733,33 +2733,33 @@
         <v>15020</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C97">
-        <v>15020</v>
+        <v>1</v>
       </c>
       <c r="D97">
         <v>0</v>
       </c>
       <c r="E97" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>15030</v>
+        <v>15020</v>
       </c>
       <c r="B98">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>15020</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
       <c r="E98" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2767,33 +2767,33 @@
         <v>15030</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C99">
-        <v>15030</v>
+        <v>1</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
       <c r="E99" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>15050</v>
+        <v>15030</v>
       </c>
       <c r="B100">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>15030</v>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2801,41 +2801,41 @@
         <v>15050</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C101">
-        <v>15050</v>
+        <v>1</v>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
       <c r="E101" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>20010</v>
+        <v>15050</v>
       </c>
       <c r="B102">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>15050</v>
       </c>
       <c r="D102">
         <v>0</v>
       </c>
       <c r="E102" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>20020</v>
+        <v>20010</v>
       </c>
       <c r="B103">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -2844,15 +2844,15 @@
         <v>0</v>
       </c>
       <c r="E103" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>20030</v>
+        <v>20020</v>
       </c>
       <c r="B104">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -2861,23 +2861,40 @@
         <v>0</v>
       </c>
       <c r="E104" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
+        <v>20030</v>
+      </c>
+      <c r="B105">
+        <v>103</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106">
         <v>20040</v>
       </c>
-      <c r="B105">
+      <c r="B106">
         <v>104</v>
       </c>
-      <c r="C105">
-        <v>0</v>
-      </c>
-      <c r="D105">
-        <v>0</v>
-      </c>
-      <c r="E105" t="s">
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106" t="s">
         <v>28</v>
       </c>
     </row>

--- a/Assets/Data/PrizeSets.xlsx
+++ b/Assets/Data/PrizeSets.xlsx
@@ -142,10 +142,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -156,9 +156,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,15 +180,60 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,68 +255,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,13 +263,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,12 +277,28 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -306,6 +306,96 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -315,25 +405,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,25 +441,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,79 +471,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,37 +483,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,11 +514,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,45 +592,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -585,21 +600,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -608,145 +608,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1078,8 +1078,8 @@
   <sheetPr/>
   <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -1338,36 +1338,36 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>1021</v>
+        <v>1002</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C16">
-        <v>3120</v>
+        <v>5</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>1041</v>
+        <v>1021</v>
       </c>
       <c r="B17">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>3120</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:5">

--- a/Assets/Data/PrizeSets.xlsx
+++ b/Assets/Data/PrizeSets.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="46">
   <si>
     <t>Id</t>
   </si>
@@ -66,6 +66,24 @@
   </si>
   <si>
     <t>選択仲間加入</t>
+  </si>
+  <si>
+    <t>エリシャ加入</t>
+  </si>
+  <si>
+    <t>ソラ加入</t>
+  </si>
+  <si>
+    <t>リジェ加入</t>
+  </si>
+  <si>
+    <t>ミシェル加入</t>
+  </si>
+  <si>
+    <t>シイナ加入</t>
+  </si>
+  <si>
+    <t>ルネ加入</t>
   </si>
   <si>
     <t>魔法</t>
@@ -142,9 +160,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -156,46 +174,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,9 +190,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -224,8 +204,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,28 +275,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,29 +311,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -306,6 +324,24 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -321,6 +357,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -333,7 +375,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,7 +417,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,7 +429,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,7 +441,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,37 +483,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,73 +501,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,6 +518,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -529,15 +580,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -549,30 +591,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,8 +613,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,145 +626,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1076,10 +1094,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F106"/>
+  <dimension ref="A1:F109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -1319,7 +1337,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>1001</v>
       </c>
@@ -1327,7 +1345,7 @@
         <v>11</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1335,8 +1353,11 @@
       <c r="E15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>1002</v>
       </c>
@@ -1344,7 +1365,7 @@
         <v>11</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1352,50 +1373,59 @@
       <c r="E16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
-        <v>1021</v>
+        <v>1003</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C17">
-        <v>3120</v>
+        <v>3</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
-        <v>1101</v>
+        <v>1004</v>
       </c>
       <c r="B18">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" t="s">
         <v>20</v>
       </c>
-      <c r="E18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
-        <v>2001</v>
+        <v>1005</v>
       </c>
       <c r="B19">
         <v>11</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1403,190 +1433,196 @@
       <c r="E19" t="s">
         <v>15</v>
       </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>2041</v>
+        <v>1006</v>
       </c>
       <c r="B20">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>1021</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>3120</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>1101</v>
+      </c>
+      <c r="B22">
+        <v>71</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21">
-        <v>2041</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>20</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22">
-        <v>2042</v>
-      </c>
-      <c r="B22">
-        <v>61</v>
-      </c>
-      <c r="C22">
-        <v>3</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
       <c r="E22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C23">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
+        <v>2041</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>20</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
         <v>2042</v>
       </c>
-      <c r="B24">
+      <c r="B25">
+        <v>61</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>2042</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>40</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>2042</v>
+      </c>
+      <c r="B27">
         <v>71</v>
       </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
         <v>20</v>
       </c>
-      <c r="E24" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25">
-        <v>2101</v>
-      </c>
-      <c r="B25">
-        <v>61</v>
-      </c>
-      <c r="C25">
-        <v>4</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26">
-        <v>2101</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26">
-        <v>30</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27">
-        <v>2102</v>
-      </c>
-      <c r="B27">
-        <v>61</v>
-      </c>
-      <c r="C27">
-        <v>4</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
       <c r="E27" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="F27" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C28">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="B29">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1594,186 +1630,186 @@
         <v>2102</v>
       </c>
       <c r="B30">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>3041</v>
+        <v>2102</v>
       </c>
       <c r="B31">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>3041</v>
+        <v>2102</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="C32">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>3042</v>
+        <v>2102</v>
       </c>
       <c r="B33">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>3042</v>
+        <v>3041</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C34">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>3042</v>
+        <v>3041</v>
       </c>
       <c r="B35">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D35">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>3101</v>
+        <v>3042</v>
       </c>
       <c r="B36">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>3101</v>
+        <v>3042</v>
       </c>
       <c r="B37">
         <v>2</v>
       </c>
       <c r="C37">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>3102</v>
+        <v>3042</v>
       </c>
       <c r="B38">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E38" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>3102</v>
+        <v>3101</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C39">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>3102</v>
+        <v>3101</v>
       </c>
       <c r="B40">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="C40">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1781,186 +1817,186 @@
         <v>3102</v>
       </c>
       <c r="B41">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>4041</v>
+        <v>3102</v>
       </c>
       <c r="B42">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>4041</v>
+        <v>3102</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="C43">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>4042</v>
+        <v>3102</v>
       </c>
       <c r="B44">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>4042</v>
+        <v>4041</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C45">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>4042</v>
+        <v>4041</v>
       </c>
       <c r="B46">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D46">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>4101</v>
+        <v>4042</v>
       </c>
       <c r="B47">
         <v>61</v>
       </c>
       <c r="C47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>4101</v>
+        <v>4042</v>
       </c>
       <c r="B48">
         <v>2</v>
       </c>
       <c r="C48">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>4102</v>
+        <v>4042</v>
       </c>
       <c r="B49">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C49">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="E49" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>4102</v>
+        <v>4101</v>
       </c>
       <c r="B50">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C50">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>4102</v>
+        <v>4101</v>
       </c>
       <c r="B51">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="C51">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1968,186 +2004,186 @@
         <v>4102</v>
       </c>
       <c r="B52">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C52">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>5041</v>
+        <v>4102</v>
       </c>
       <c r="B53">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>5041</v>
+        <v>4102</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="C54">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>5042</v>
+        <v>4102</v>
       </c>
       <c r="B55">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C55">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="B56">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C56">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="B57">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D57">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>5101</v>
+        <v>5042</v>
       </c>
       <c r="B58">
         <v>61</v>
       </c>
       <c r="C58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>5101</v>
+        <v>5042</v>
       </c>
       <c r="B59">
         <v>2</v>
       </c>
       <c r="C59">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>5102</v>
+        <v>5042</v>
       </c>
       <c r="B60">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C60">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="E60" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>5102</v>
+        <v>5101</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C61">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>5102</v>
+        <v>5101</v>
       </c>
       <c r="B62">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="C62">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2155,747 +2191,798 @@
         <v>5102</v>
       </c>
       <c r="B63">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C63">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>6021</v>
+        <v>5102</v>
       </c>
       <c r="B64">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C64">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>6021</v>
+        <v>5102</v>
       </c>
       <c r="B65">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="C65">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>6022</v>
+        <v>5102</v>
       </c>
       <c r="B66">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C66">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>6022</v>
+        <v>6021</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C67">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>6031</v>
+        <v>6021</v>
       </c>
       <c r="B68">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C68">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>6031</v>
+        <v>6022</v>
       </c>
       <c r="B69">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C69">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>6031</v>
+        <v>6022</v>
       </c>
       <c r="B70">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D70">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>6101</v>
+        <v>6031</v>
       </c>
       <c r="B71">
         <v>61</v>
       </c>
       <c r="C71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>6101</v>
+        <v>6031</v>
       </c>
       <c r="B72">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>11020</v>
+        <v>6031</v>
       </c>
       <c r="B73">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="E73" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>11020</v>
+        <v>6101</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C74">
-        <v>11020</v>
+        <v>5</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>11030</v>
+        <v>6101</v>
       </c>
       <c r="B75">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>11030</v>
+        <v>11020</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C76">
-        <v>11030</v>
+        <v>1</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>11040</v>
+        <v>11020</v>
       </c>
       <c r="B77">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>11020</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>11040</v>
+        <v>11030</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C78">
-        <v>11040</v>
+        <v>1</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>12020</v>
+        <v>11030</v>
       </c>
       <c r="B79">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>11030</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>12020</v>
+        <v>11040</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C80">
-        <v>12020</v>
+        <v>1</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>12030</v>
+        <v>11040</v>
       </c>
       <c r="B81">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>11040</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>12030</v>
+        <v>12020</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C82">
-        <v>12030</v>
+        <v>1</v>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>12040</v>
+        <v>12020</v>
       </c>
       <c r="B83">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>12020</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>12040</v>
+        <v>12030</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C84">
-        <v>12040</v>
+        <v>1</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>13020</v>
+        <v>12030</v>
       </c>
       <c r="B85">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>12030</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>13020</v>
+        <v>12040</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C86">
-        <v>13020</v>
+        <v>1</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>13030</v>
+        <v>12040</v>
       </c>
       <c r="B87">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>12040</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>13030</v>
+        <v>13020</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C88">
-        <v>13030</v>
+        <v>1</v>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
       <c r="E88" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>13040</v>
+        <v>13020</v>
       </c>
       <c r="B89">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>13020</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>13040</v>
+        <v>13030</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C90">
-        <v>13040</v>
+        <v>1</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
       <c r="E90" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>14010</v>
+        <v>13030</v>
       </c>
       <c r="B91">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>13030</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="E91" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>14010</v>
+        <v>13040</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C92">
-        <v>14010</v>
+        <v>1</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
       <c r="E92" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>14020</v>
+        <v>13040</v>
       </c>
       <c r="B93">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>13040</v>
       </c>
       <c r="D93">
         <v>0</v>
       </c>
       <c r="E93" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>14020</v>
+        <v>14010</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C94">
-        <v>14020</v>
+        <v>1</v>
       </c>
       <c r="D94">
         <v>0</v>
       </c>
       <c r="E94" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>14030</v>
+        <v>14010</v>
       </c>
       <c r="B95">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>14010</v>
       </c>
       <c r="D95">
         <v>0</v>
       </c>
       <c r="E95" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>14030</v>
+        <v>14020</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C96">
-        <v>14030</v>
+        <v>1</v>
       </c>
       <c r="D96">
         <v>0</v>
       </c>
       <c r="E96" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>15020</v>
+        <v>14020</v>
       </c>
       <c r="B97">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>14020</v>
       </c>
       <c r="D97">
         <v>0</v>
       </c>
       <c r="E97" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>15020</v>
+        <v>14030</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C98">
-        <v>15020</v>
+        <v>1</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
       <c r="E98" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>15030</v>
+        <v>14030</v>
       </c>
       <c r="B99">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>14030</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
       <c r="E99" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>15030</v>
+        <v>15020</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C100">
-        <v>15030</v>
+        <v>1</v>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>15050</v>
+        <v>15020</v>
       </c>
       <c r="B101">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>15020</v>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
       <c r="E101" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>15050</v>
+        <v>15030</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C102">
-        <v>15050</v>
+        <v>1</v>
       </c>
       <c r="D102">
         <v>0</v>
       </c>
       <c r="E102" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>20010</v>
+        <v>15030</v>
       </c>
       <c r="B103">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>15030</v>
       </c>
       <c r="D103">
         <v>0</v>
       </c>
       <c r="E103" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>20020</v>
+        <v>15050</v>
       </c>
       <c r="B104">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D104">
         <v>0</v>
       </c>
       <c r="E104" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <v>20030</v>
+        <v>15050</v>
       </c>
       <c r="B105">
-        <v>103</v>
+        <v>1</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>15050</v>
       </c>
       <c r="D105">
         <v>0</v>
       </c>
       <c r="E105" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106">
+        <v>20010</v>
+      </c>
+      <c r="B106">
+        <v>101</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107">
+        <v>20020</v>
+      </c>
+      <c r="B107">
+        <v>102</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108">
+        <v>20030</v>
+      </c>
+      <c r="B108">
+        <v>103</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109">
         <v>20040</v>
       </c>
-      <c r="B106">
+      <c r="B109">
         <v>104</v>
       </c>
-      <c r="C106">
-        <v>0</v>
-      </c>
-      <c r="D106">
-        <v>0</v>
-      </c>
-      <c r="E106" t="s">
-        <v>28</v>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2917,7 +3004,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2925,7 +3012,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2933,7 +3020,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2941,7 +3028,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2949,7 +3036,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2965,7 +3052,7 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2973,7 +3060,7 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2981,7 +3068,7 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2989,7 +3076,7 @@
         <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2997,7 +3084,7 @@
         <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3005,7 +3092,7 @@
         <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3013,7 +3100,7 @@
         <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3021,7 +3108,7 @@
         <v>210</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/PrizeSets.xlsx
+++ b/Assets/Data/PrizeSets.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="48">
   <si>
     <t>Id</t>
   </si>
@@ -86,28 +86,34 @@
     <t>ルネ加入</t>
   </si>
   <si>
+    <t>魔法・ウォーターヒール</t>
+  </si>
+  <si>
+    <t>魔法・ブラッドドレイン</t>
+  </si>
+  <si>
+    <t>魔法選択</t>
+  </si>
+  <si>
+    <t>魔法・リフレッシュ</t>
+  </si>
+  <si>
+    <t>救出</t>
+  </si>
+  <si>
+    <t>Nu</t>
+  </si>
+  <si>
+    <t>Nu獲得量アップ</t>
+  </si>
+  <si>
+    <t>敵Lvアップ</t>
+  </si>
+  <si>
+    <t>ED</t>
+  </si>
+  <si>
     <t>魔法</t>
-  </si>
-  <si>
-    <t>魔法選択</t>
-  </si>
-  <si>
-    <t>救出</t>
-  </si>
-  <si>
-    <t>ステージ2中ボス</t>
-  </si>
-  <si>
-    <t>Nu</t>
-  </si>
-  <si>
-    <t>Nu獲得量アップ</t>
-  </si>
-  <si>
-    <t>敵Lvアップ</t>
-  </si>
-  <si>
-    <t>ED</t>
   </si>
   <si>
     <t>過去改編</t>
@@ -175,6 +181,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -182,23 +195,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,37 +210,46 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,23 +263,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -289,30 +285,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,187 +333,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,50 +524,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -576,21 +538,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,8 +560,67 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,7 +632,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -635,136 +641,136 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1094,10 +1100,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F109"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A25" sqref="$A25:$XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -1476,90 +1482,81 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>1101</v>
+        <v>1041</v>
       </c>
       <c r="B22">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>5110</v>
       </c>
       <c r="D22">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:5">
       <c r="A23">
-        <v>2041</v>
+        <v>1101</v>
       </c>
       <c r="B23">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E23" t="s">
         <v>25</v>
       </c>
-      <c r="F23" t="s">
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>2031</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>14110</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24">
-        <v>2041</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24">
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>2101</v>
+      </c>
+      <c r="B25">
+        <v>71</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
         <v>20</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25">
-        <v>2042</v>
-      </c>
-      <c r="B25">
-        <v>61</v>
-      </c>
-      <c r="C25">
-        <v>3</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
       </c>
       <c r="E25" t="s">
         <v>25</v>
       </c>
-      <c r="F25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
-        <v>2042</v>
+        <v>3041</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C26">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1567,76 +1564,70 @@
       <c r="E26" t="s">
         <v>27</v>
       </c>
-      <c r="F26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
-        <v>2042</v>
+        <v>3041</v>
       </c>
       <c r="B27">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D27">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>2101</v>
+        <v>3042</v>
       </c>
       <c r="B28">
         <v>61</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>2101</v>
+        <v>3042</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
       <c r="C29">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>2102</v>
+        <v>3042</v>
       </c>
       <c r="B30">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E30" t="s">
         <v>25</v>
@@ -1644,13 +1635,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>2102</v>
+        <v>3101</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C31">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1661,13 +1652,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>2102</v>
+        <v>3101</v>
       </c>
       <c r="B32">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="C32">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1678,81 +1669,81 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>2102</v>
+        <v>3102</v>
       </c>
       <c r="B33">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>3041</v>
+        <v>3102</v>
       </c>
       <c r="B34">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>3041</v>
+        <v>3102</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="C35">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>3042</v>
+        <v>3102</v>
       </c>
       <c r="B36">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>3042</v>
+        <v>4041</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C37">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1763,67 +1754,67 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>3042</v>
+        <v>4041</v>
       </c>
       <c r="B38">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D38">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>3101</v>
+        <v>4042</v>
       </c>
       <c r="B39">
         <v>61</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>3101</v>
+        <v>4042</v>
       </c>
       <c r="B40">
         <v>2</v>
       </c>
       <c r="C40">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>3102</v>
+        <v>4042</v>
       </c>
       <c r="B41">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="E41" t="s">
         <v>25</v>
@@ -1831,13 +1822,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>3102</v>
+        <v>4101</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C42">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1848,13 +1839,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>3102</v>
+        <v>4101</v>
       </c>
       <c r="B43">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="C43">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1865,81 +1856,81 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>3102</v>
+        <v>4102</v>
       </c>
       <c r="B44">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C44">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>4041</v>
+        <v>4102</v>
       </c>
       <c r="B45">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>4041</v>
+        <v>4102</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="C46">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>4042</v>
+        <v>4102</v>
       </c>
       <c r="B47">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C47">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>4042</v>
+        <v>5041</v>
       </c>
       <c r="B48">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C48">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -1950,67 +1941,67 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>4042</v>
+        <v>5041</v>
       </c>
       <c r="B49">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D49">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>4101</v>
+        <v>5042</v>
       </c>
       <c r="B50">
         <v>61</v>
       </c>
       <c r="C50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>4101</v>
+        <v>5042</v>
       </c>
       <c r="B51">
         <v>2</v>
       </c>
       <c r="C51">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>4102</v>
+        <v>5042</v>
       </c>
       <c r="B52">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C52">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="E52" t="s">
         <v>25</v>
@@ -2018,13 +2009,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>4102</v>
+        <v>5101</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C53">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -2035,13 +2026,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>4102</v>
+        <v>5101</v>
       </c>
       <c r="B54">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="C54">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -2052,81 +2043,81 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>4102</v>
+        <v>5102</v>
       </c>
       <c r="B55">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C55">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>5041</v>
+        <v>5102</v>
       </c>
       <c r="B56">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>5041</v>
+        <v>5102</v>
       </c>
       <c r="B57">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="C57">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>5042</v>
+        <v>5102</v>
       </c>
       <c r="B58">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>5042</v>
+        <v>6021</v>
       </c>
       <c r="B59">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C59">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2137,58 +2128,58 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>5042</v>
+        <v>6021</v>
       </c>
       <c r="B60">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D60">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>5101</v>
+        <v>6022</v>
       </c>
       <c r="B61">
         <v>61</v>
       </c>
       <c r="C61">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>5101</v>
+        <v>6022</v>
       </c>
       <c r="B62">
         <v>2</v>
       </c>
       <c r="C62">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>5102</v>
+        <v>6031</v>
       </c>
       <c r="B63">
         <v>61</v>
@@ -2200,49 +2191,49 @@
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>5102</v>
+        <v>6031</v>
       </c>
       <c r="B64">
         <v>2</v>
       </c>
       <c r="C64">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>5102</v>
+        <v>6031</v>
       </c>
       <c r="B65">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C65">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="E65" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>5102</v>
+        <v>6101</v>
       </c>
       <c r="B66">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C66">
         <v>5</v>
@@ -2251,35 +2242,35 @@
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>6021</v>
+        <v>6101</v>
       </c>
       <c r="B67">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="C67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>6021</v>
+        <v>11020</v>
       </c>
       <c r="B68">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C68">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -2290,30 +2281,30 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>6022</v>
+        <v>11020</v>
       </c>
       <c r="B69">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C69">
-        <v>2</v>
+        <v>11020</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>6022</v>
+        <v>11030</v>
       </c>
       <c r="B70">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C70">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -2324,30 +2315,30 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>6031</v>
+        <v>11030</v>
       </c>
       <c r="B71">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C71">
-        <v>4</v>
+        <v>11030</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>6031</v>
+        <v>11040</v>
       </c>
       <c r="B72">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C72">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -2358,58 +2349,58 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>6031</v>
+        <v>11040</v>
       </c>
       <c r="B73">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>11040</v>
       </c>
       <c r="D73">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>6101</v>
+        <v>12020</v>
       </c>
       <c r="B74">
         <v>61</v>
       </c>
       <c r="C74">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>6101</v>
+        <v>12020</v>
       </c>
       <c r="B75">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>12020</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>11020</v>
+        <v>12030</v>
       </c>
       <c r="B76">
         <v>61</v>
@@ -2421,29 +2412,29 @@
         <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>11020</v>
+        <v>12030</v>
       </c>
       <c r="B77">
         <v>1</v>
       </c>
       <c r="C77">
-        <v>11020</v>
+        <v>12030</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>11030</v>
+        <v>12040</v>
       </c>
       <c r="B78">
         <v>61</v>
@@ -2455,29 +2446,29 @@
         <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>11030</v>
+        <v>12040</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
       <c r="C79">
-        <v>11030</v>
+        <v>12040</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>11040</v>
+        <v>13020</v>
       </c>
       <c r="B80">
         <v>61</v>
@@ -2489,29 +2480,29 @@
         <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>11040</v>
+        <v>13020</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
       <c r="C81">
-        <v>11040</v>
+        <v>13020</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>12020</v>
+        <v>13030</v>
       </c>
       <c r="B82">
         <v>61</v>
@@ -2523,29 +2514,29 @@
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>12020</v>
+        <v>13030</v>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
       <c r="C83">
-        <v>12020</v>
+        <v>13030</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>12030</v>
+        <v>13040</v>
       </c>
       <c r="B84">
         <v>61</v>
@@ -2557,29 +2548,29 @@
         <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>12030</v>
+        <v>13040</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
       <c r="C85">
-        <v>12030</v>
+        <v>13040</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>12040</v>
+        <v>14010</v>
       </c>
       <c r="B86">
         <v>61</v>
@@ -2591,29 +2582,29 @@
         <v>0</v>
       </c>
       <c r="E86" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>12040</v>
+        <v>14010</v>
       </c>
       <c r="B87">
         <v>1</v>
       </c>
       <c r="C87">
-        <v>12040</v>
+        <v>14010</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>13020</v>
+        <v>14020</v>
       </c>
       <c r="B88">
         <v>61</v>
@@ -2625,29 +2616,29 @@
         <v>0</v>
       </c>
       <c r="E88" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>13020</v>
+        <v>14020</v>
       </c>
       <c r="B89">
         <v>1</v>
       </c>
       <c r="C89">
-        <v>13020</v>
+        <v>14020</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>13030</v>
+        <v>14030</v>
       </c>
       <c r="B90">
         <v>61</v>
@@ -2659,29 +2650,29 @@
         <v>0</v>
       </c>
       <c r="E90" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>13030</v>
+        <v>14030</v>
       </c>
       <c r="B91">
         <v>1</v>
       </c>
       <c r="C91">
-        <v>13030</v>
+        <v>14030</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="E91" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>13040</v>
+        <v>15020</v>
       </c>
       <c r="B92">
         <v>61</v>
@@ -2693,29 +2684,29 @@
         <v>0</v>
       </c>
       <c r="E92" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>13040</v>
+        <v>15020</v>
       </c>
       <c r="B93">
         <v>1</v>
       </c>
       <c r="C93">
-        <v>13040</v>
+        <v>15020</v>
       </c>
       <c r="D93">
         <v>0</v>
       </c>
       <c r="E93" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>14010</v>
+        <v>15030</v>
       </c>
       <c r="B94">
         <v>61</v>
@@ -2727,29 +2718,29 @@
         <v>0</v>
       </c>
       <c r="E94" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>14010</v>
+        <v>15030</v>
       </c>
       <c r="B95">
         <v>1</v>
       </c>
       <c r="C95">
-        <v>14010</v>
+        <v>15030</v>
       </c>
       <c r="D95">
         <v>0</v>
       </c>
       <c r="E95" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>14020</v>
+        <v>15050</v>
       </c>
       <c r="B96">
         <v>61</v>
@@ -2761,228 +2752,92 @@
         <v>0</v>
       </c>
       <c r="E96" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>14020</v>
+        <v>15050</v>
       </c>
       <c r="B97">
         <v>1</v>
       </c>
       <c r="C97">
-        <v>14020</v>
+        <v>15050</v>
       </c>
       <c r="D97">
         <v>0</v>
       </c>
       <c r="E97" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>14030</v>
+        <v>20010</v>
       </c>
       <c r="B98">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
       <c r="E98" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>14030</v>
+        <v>20020</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="C99">
-        <v>14030</v>
+        <v>0</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
       <c r="E99" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>15020</v>
+        <v>20030</v>
       </c>
       <c r="B100">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>15020</v>
+        <v>20040</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>104</v>
       </c>
       <c r="C101">
-        <v>15020</v>
+        <v>0</v>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
       <c r="E101" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102">
-        <v>15030</v>
-      </c>
-      <c r="B102">
-        <v>61</v>
-      </c>
-      <c r="C102">
-        <v>1</v>
-      </c>
-      <c r="D102">
-        <v>0</v>
-      </c>
-      <c r="E102" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103">
-        <v>15030</v>
-      </c>
-      <c r="B103">
-        <v>1</v>
-      </c>
-      <c r="C103">
-        <v>15030</v>
-      </c>
-      <c r="D103">
-        <v>0</v>
-      </c>
-      <c r="E103" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104">
-        <v>15050</v>
-      </c>
-      <c r="B104">
-        <v>61</v>
-      </c>
-      <c r="C104">
-        <v>1</v>
-      </c>
-      <c r="D104">
-        <v>0</v>
-      </c>
-      <c r="E104" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105">
-        <v>15050</v>
-      </c>
-      <c r="B105">
-        <v>1</v>
-      </c>
-      <c r="C105">
-        <v>15050</v>
-      </c>
-      <c r="D105">
-        <v>0</v>
-      </c>
-      <c r="E105" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106">
-        <v>20010</v>
-      </c>
-      <c r="B106">
-        <v>101</v>
-      </c>
-      <c r="C106">
-        <v>0</v>
-      </c>
-      <c r="D106">
-        <v>0</v>
-      </c>
-      <c r="E106" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107">
-        <v>20020</v>
-      </c>
-      <c r="B107">
-        <v>102</v>
-      </c>
-      <c r="C107">
-        <v>0</v>
-      </c>
-      <c r="D107">
-        <v>0</v>
-      </c>
-      <c r="E107" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108">
-        <v>20030</v>
-      </c>
-      <c r="B108">
-        <v>103</v>
-      </c>
-      <c r="C108">
-        <v>0</v>
-      </c>
-      <c r="D108">
-        <v>0</v>
-      </c>
-      <c r="E108" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109">
-        <v>20040</v>
-      </c>
-      <c r="B109">
-        <v>104</v>
-      </c>
-      <c r="C109">
-        <v>0</v>
-      </c>
-      <c r="D109">
-        <v>0</v>
-      </c>
-      <c r="E109" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -3004,7 +2859,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3012,7 +2867,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3020,7 +2875,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3028,7 +2883,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3036,7 +2891,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3052,7 +2907,7 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3060,7 +2915,7 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3068,7 +2923,7 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3076,7 +2931,7 @@
         <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3084,7 +2939,7 @@
         <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3092,7 +2947,7 @@
         <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3100,7 +2955,7 @@
         <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3108,7 +2963,7 @@
         <v>210</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/PrizeSets.xlsx
+++ b/Assets/Data/PrizeSets.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="48">
   <si>
     <t>Id</t>
   </si>
@@ -166,9 +166,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -177,6 +177,52 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -194,47 +240,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,7 +264,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,23 +294,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,32 +310,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,13 +333,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,97 +495,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,67 +513,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,80 +527,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,6 +555,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -632,145 +632,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1100,10 +1100,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A25" sqref="$A25:$XFD29"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A82" sqref="$A82:$XFD82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -2267,27 +2267,27 @@
         <v>11020</v>
       </c>
       <c r="B68">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>11020</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>11020</v>
+        <v>11030</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
       <c r="C69">
-        <v>11020</v>
+        <v>11030</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -2298,30 +2298,30 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>11030</v>
+        <v>11040</v>
       </c>
       <c r="B70">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>11040</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>11030</v>
+        <v>12020</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
       <c r="C71">
-        <v>11030</v>
+        <v>12020</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -2332,30 +2332,30 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>11040</v>
+        <v>12030</v>
       </c>
       <c r="B72">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>12030</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>11040</v>
+        <v>12040</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
       <c r="C73">
-        <v>11040</v>
+        <v>12040</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -2366,30 +2366,30 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>12020</v>
+        <v>13020</v>
       </c>
       <c r="B74">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>13020</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>12020</v>
+        <v>13030</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
       <c r="C75">
-        <v>12020</v>
+        <v>13030</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -2400,30 +2400,30 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>12030</v>
+        <v>13040</v>
       </c>
       <c r="B76">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>13040</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>12030</v>
+        <v>14010</v>
       </c>
       <c r="B77">
         <v>1</v>
       </c>
       <c r="C77">
-        <v>12030</v>
+        <v>14010</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -2434,30 +2434,30 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>12040</v>
+        <v>14020</v>
       </c>
       <c r="B78">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>14020</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>12040</v>
+        <v>14030</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
       <c r="C79">
-        <v>12040</v>
+        <v>14030</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -2468,30 +2468,30 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>13020</v>
+        <v>15020</v>
       </c>
       <c r="B80">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>15020</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>13020</v>
+        <v>15030</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
       <c r="C81">
-        <v>13020</v>
+        <v>15030</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -2502,341 +2502,86 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>13030</v>
+        <v>15050</v>
       </c>
       <c r="B82">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>15050</v>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>13030</v>
+        <v>20010</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="C83">
-        <v>13030</v>
+        <v>0</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>13040</v>
+        <v>20020</v>
       </c>
       <c r="B84">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>13040</v>
+        <v>20030</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="C85">
-        <v>13040</v>
+        <v>0</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>14010</v>
+        <v>20040</v>
       </c>
       <c r="B86">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87">
-        <v>14010</v>
-      </c>
-      <c r="B87">
-        <v>1</v>
-      </c>
-      <c r="C87">
-        <v>14010</v>
-      </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-      <c r="E87" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88">
-        <v>14020</v>
-      </c>
-      <c r="B88">
-        <v>61</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-      <c r="E88" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89">
-        <v>14020</v>
-      </c>
-      <c r="B89">
-        <v>1</v>
-      </c>
-      <c r="C89">
-        <v>14020</v>
-      </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
-      <c r="E89" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90">
-        <v>14030</v>
-      </c>
-      <c r="B90">
-        <v>61</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-      <c r="E90" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91">
-        <v>14030</v>
-      </c>
-      <c r="B91">
-        <v>1</v>
-      </c>
-      <c r="C91">
-        <v>14030</v>
-      </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-      <c r="E91" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92">
-        <v>15020</v>
-      </c>
-      <c r="B92">
-        <v>61</v>
-      </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="E92" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93">
-        <v>15020</v>
-      </c>
-      <c r="B93">
-        <v>1</v>
-      </c>
-      <c r="C93">
-        <v>15020</v>
-      </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-      <c r="E93" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94">
-        <v>15030</v>
-      </c>
-      <c r="B94">
-        <v>61</v>
-      </c>
-      <c r="C94">
-        <v>1</v>
-      </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="E94" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95">
-        <v>15030</v>
-      </c>
-      <c r="B95">
-        <v>1</v>
-      </c>
-      <c r="C95">
-        <v>15030</v>
-      </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-      <c r="E95" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96">
-        <v>15050</v>
-      </c>
-      <c r="B96">
-        <v>61</v>
-      </c>
-      <c r="C96">
-        <v>1</v>
-      </c>
-      <c r="D96">
-        <v>0</v>
-      </c>
-      <c r="E96" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97">
-        <v>15050</v>
-      </c>
-      <c r="B97">
-        <v>1</v>
-      </c>
-      <c r="C97">
-        <v>15050</v>
-      </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-      <c r="E97" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98">
-        <v>20010</v>
-      </c>
-      <c r="B98">
-        <v>101</v>
-      </c>
-      <c r="C98">
-        <v>0</v>
-      </c>
-      <c r="D98">
-        <v>0</v>
-      </c>
-      <c r="E98" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99">
-        <v>20020</v>
-      </c>
-      <c r="B99">
-        <v>102</v>
-      </c>
-      <c r="C99">
-        <v>0</v>
-      </c>
-      <c r="D99">
-        <v>0</v>
-      </c>
-      <c r="E99" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100">
-        <v>20030</v>
-      </c>
-      <c r="B100">
-        <v>103</v>
-      </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-      <c r="D100">
-        <v>0</v>
-      </c>
-      <c r="E100" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101">
-        <v>20040</v>
-      </c>
-      <c r="B101">
-        <v>104</v>
-      </c>
-      <c r="C101">
-        <v>0</v>
-      </c>
-      <c r="D101">
-        <v>0</v>
-      </c>
-      <c r="E101" t="s">
         <v>36</v>
       </c>
     </row>

--- a/Assets/Data/PrizeSets.xlsx
+++ b/Assets/Data/PrizeSets.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="49">
   <si>
     <t>Id</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>SelectRelic</t>
+  </si>
+  <si>
+    <t>SelectSkill</t>
   </si>
   <si>
     <t>Ending</t>
@@ -166,10 +169,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -177,59 +180,6 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -249,17 +199,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -270,17 +220,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,8 +273,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,13 +336,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,43 +480,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,121 +510,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,26 +535,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,23 +557,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,6 +601,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -632,145 +635,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1102,8 +1105,8 @@
   <sheetPr/>
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A82" sqref="$A82:$XFD82"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -1481,8 +1484,8 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22">
-        <v>1041</v>
+      <c r="A22" s="1">
+        <v>1031</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1502,13 +1505,13 @@
         <v>1101</v>
       </c>
       <c r="B23">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D23">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
         <v>25</v>
@@ -2594,10 +2597,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="1"/>
@@ -2705,10 +2708,18 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>210</v>
+        <v>101</v>
       </c>
       <c r="B14" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>210</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/PrizeSets.xlsx
+++ b/Assets/Data/PrizeSets.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="50">
   <si>
     <t>Id</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>魔法・ウォーターヒール</t>
+  </si>
+  <si>
+    <t>魔法ランダム</t>
   </si>
   <si>
     <t>魔法・ブラッドドレイン</t>
@@ -169,10 +172,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -190,16 +193,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,6 +208,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -221,21 +231,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,30 +245,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -281,17 +253,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,16 +275,56 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,19 +339,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,67 +411,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,91 +489,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,15 +530,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -559,6 +553,41 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,32 +630,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -635,145 +638,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1103,10 +1106,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -1468,47 +1471,47 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>1021</v>
+        <v>1011</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C21">
         <v>3120</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="1">
-        <v>1031</v>
+      <c r="A22">
+        <v>1021</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="C22">
-        <v>5110</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23">
-        <v>1101</v>
+      <c r="A23" s="1">
+        <v>1031</v>
       </c>
       <c r="B23">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>5110</v>
       </c>
       <c r="D23">
         <v>10</v>
@@ -1519,177 +1522,177 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>2031</v>
+        <v>1041</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="C24">
-        <v>14110</v>
+        <v>5</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>2101</v>
+        <v>1101</v>
       </c>
       <c r="B25">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D25">
         <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>3041</v>
+        <v>2011</v>
       </c>
       <c r="B26">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>3041</v>
+        <v>2021</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="C27">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>3042</v>
+        <v>2022</v>
       </c>
       <c r="B28">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>3042</v>
+        <v>2031</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="C29">
-        <v>50</v>
+        <v>14110</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>3042</v>
+        <v>2101</v>
       </c>
       <c r="B30">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D30">
         <v>20</v>
       </c>
       <c r="E30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>3101</v>
+        <v>3041</v>
       </c>
       <c r="B31">
         <v>61</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>3101</v>
+        <v>3041</v>
       </c>
       <c r="B32">
         <v>2</v>
       </c>
       <c r="C32">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>3102</v>
+        <v>3042</v>
       </c>
       <c r="B33">
         <v>61</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>3102</v>
+        <v>3042</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -1701,69 +1704,69 @@
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>3102</v>
+        <v>3042</v>
       </c>
       <c r="B35">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C35">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E35" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>3102</v>
+        <v>3101</v>
       </c>
       <c r="B36">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>4041</v>
+        <v>3101</v>
       </c>
       <c r="B37">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>4041</v>
+        <v>3102</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C38">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1774,109 +1777,109 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>4042</v>
+        <v>3102</v>
       </c>
       <c r="B39">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>4042</v>
+        <v>3102</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="C40">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>4042</v>
+        <v>3102</v>
       </c>
       <c r="B41">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D41">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>4101</v>
+        <v>4041</v>
       </c>
       <c r="B42">
         <v>61</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>4101</v>
+        <v>4041</v>
       </c>
       <c r="B43">
         <v>2</v>
       </c>
       <c r="C43">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>4102</v>
+        <v>4042</v>
       </c>
       <c r="B44">
         <v>61</v>
       </c>
       <c r="C44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>4102</v>
+        <v>4042</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -1888,69 +1891,69 @@
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>4102</v>
+        <v>4042</v>
       </c>
       <c r="B46">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C46">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="E46" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>4102</v>
+        <v>4101</v>
       </c>
       <c r="B47">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>5041</v>
+        <v>4101</v>
       </c>
       <c r="B48">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>5041</v>
+        <v>4102</v>
       </c>
       <c r="B49">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C49">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1961,183 +1964,183 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>5042</v>
+        <v>4102</v>
       </c>
       <c r="B50">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C50">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>5042</v>
+        <v>4102</v>
       </c>
       <c r="B51">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="C51">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>5042</v>
+        <v>4102</v>
       </c>
       <c r="B52">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D52">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>5101</v>
+        <v>5041</v>
       </c>
       <c r="B53">
         <v>61</v>
       </c>
       <c r="C53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>5101</v>
+        <v>5041</v>
       </c>
       <c r="B54">
         <v>2</v>
       </c>
       <c r="C54">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>5102</v>
+        <v>5042</v>
       </c>
       <c r="B55">
         <v>61</v>
       </c>
       <c r="C55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>5102</v>
+        <v>5042</v>
       </c>
       <c r="B56">
         <v>2</v>
       </c>
       <c r="C56">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>5102</v>
+        <v>5042</v>
       </c>
       <c r="B57">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C57">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="E57" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>5102</v>
+        <v>5101</v>
       </c>
       <c r="B58">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C58">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>6021</v>
+        <v>5101</v>
       </c>
       <c r="B59">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>6021</v>
+        <v>5102</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C60">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -2148,64 +2151,64 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>6022</v>
+        <v>5102</v>
       </c>
       <c r="B61">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>6022</v>
+        <v>5102</v>
       </c>
       <c r="B62">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="C62">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>6031</v>
+        <v>5102</v>
       </c>
       <c r="B63">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C63">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>6031</v>
+        <v>6021</v>
       </c>
       <c r="B64">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C64">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -2216,132 +2219,132 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>6031</v>
+        <v>6021</v>
       </c>
       <c r="B65">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D65">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>6101</v>
+        <v>6022</v>
       </c>
       <c r="B66">
         <v>61</v>
       </c>
       <c r="C66">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>6101</v>
+        <v>6022</v>
       </c>
       <c r="B67">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>11020</v>
+        <v>6031</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C68">
-        <v>11020</v>
+        <v>4</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>11030</v>
+        <v>6031</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C69">
-        <v>11030</v>
+        <v>100</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>11040</v>
+        <v>6031</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="C70">
-        <v>11040</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="E70" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>12020</v>
+        <v>6101</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C71">
-        <v>12020</v>
+        <v>5</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>12030</v>
+        <v>6101</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C72">
-        <v>12030</v>
+        <v>0</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -2352,183 +2355,183 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>12040</v>
+        <v>11020</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
       <c r="C73">
-        <v>12040</v>
+        <v>11020</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>13020</v>
+        <v>11030</v>
       </c>
       <c r="B74">
         <v>1</v>
       </c>
       <c r="C74">
-        <v>13020</v>
+        <v>11030</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>13030</v>
+        <v>11040</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
       <c r="C75">
-        <v>13030</v>
+        <v>11040</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>13040</v>
+        <v>12020</v>
       </c>
       <c r="B76">
         <v>1</v>
       </c>
       <c r="C76">
-        <v>13040</v>
+        <v>12020</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>14010</v>
+        <v>12030</v>
       </c>
       <c r="B77">
         <v>1</v>
       </c>
       <c r="C77">
-        <v>14010</v>
+        <v>12030</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>14020</v>
+        <v>12040</v>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
       <c r="C78">
-        <v>14020</v>
+        <v>12040</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>14030</v>
+        <v>13020</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
       <c r="C79">
-        <v>14030</v>
+        <v>13020</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>15020</v>
+        <v>13030</v>
       </c>
       <c r="B80">
         <v>1</v>
       </c>
       <c r="C80">
-        <v>15020</v>
+        <v>13030</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>15030</v>
+        <v>13040</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
       <c r="C81">
-        <v>15030</v>
+        <v>13040</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>15050</v>
+        <v>14010</v>
       </c>
       <c r="B82">
         <v>1</v>
       </c>
       <c r="C82">
-        <v>15050</v>
+        <v>14010</v>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>20010</v>
+        <v>14020</v>
       </c>
       <c r="B83">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>14020</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -2539,53 +2542,138 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>20020</v>
+        <v>14030</v>
       </c>
       <c r="B84">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>14030</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>20030</v>
+        <v>15020</v>
       </c>
       <c r="B85">
-        <v>103</v>
+        <v>1</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>15020</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
+        <v>15030</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>15030</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87">
+        <v>15050</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>15050</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88">
+        <v>20010</v>
+      </c>
+      <c r="B88">
+        <v>101</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89">
+        <v>20020</v>
+      </c>
+      <c r="B89">
+        <v>102</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90">
+        <v>20030</v>
+      </c>
+      <c r="B90">
+        <v>103</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91">
         <v>20040</v>
       </c>
-      <c r="B86">
+      <c r="B91">
         <v>104</v>
       </c>
-      <c r="C86">
-        <v>0</v>
-      </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86" t="s">
-        <v>36</v>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2607,7 +2695,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2615,7 +2703,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2623,7 +2711,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2631,7 +2719,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2639,7 +2727,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2655,7 +2743,7 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2663,7 +2751,7 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2671,7 +2759,7 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2679,7 +2767,7 @@
         <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2687,7 +2775,7 @@
         <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2695,7 +2783,7 @@
         <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2703,7 +2791,7 @@
         <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2711,7 +2799,7 @@
         <v>101</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2719,7 +2807,7 @@
         <v>210</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/PrizeSets.xlsx
+++ b/Assets/Data/PrizeSets.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\hibikake_unity\Assets\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59AC972-0017-42D0-BDDA-18D12A990782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PrizeSets" sheetId="1" r:id="rId1"/>
@@ -170,14 +176,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,345 +186,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -532,317 +209,28 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="桁区切り[0]" xfId="1" builtinId="6"/>
-    <cellStyle name="入力" xfId="2" builtinId="20"/>
-    <cellStyle name="桁区切り" xfId="3" builtinId="3"/>
-    <cellStyle name="通貨[0]" xfId="4" builtinId="7"/>
-    <cellStyle name="40% - アクセント 5" xfId="5" builtinId="47"/>
-    <cellStyle name="通貨" xfId="6" builtinId="4"/>
-    <cellStyle name="パーセント" xfId="7" builtinId="5"/>
-    <cellStyle name="ハイパーリンク" xfId="8" builtinId="8"/>
-    <cellStyle name="アクセント 2" xfId="9" builtinId="33"/>
-    <cellStyle name="訪問済ハイパーリンク" xfId="10" builtinId="9"/>
-    <cellStyle name="20% - アクセント 4" xfId="11" builtinId="42"/>
-    <cellStyle name="メモ" xfId="12" builtinId="10"/>
-    <cellStyle name="良い" xfId="13" builtinId="26"/>
-    <cellStyle name="警告文" xfId="14" builtinId="11"/>
-    <cellStyle name="リンクセル" xfId="15" builtinId="24"/>
-    <cellStyle name="タイトル" xfId="16" builtinId="15"/>
-    <cellStyle name="説明文" xfId="17" builtinId="53"/>
-    <cellStyle name="アクセント 6" xfId="18" builtinId="49"/>
-    <cellStyle name="出力" xfId="19" builtinId="21"/>
-    <cellStyle name="見出し 1" xfId="20" builtinId="16"/>
-    <cellStyle name="見出し 2" xfId="21" builtinId="17"/>
-    <cellStyle name="計算" xfId="22" builtinId="22"/>
-    <cellStyle name="見出し 3" xfId="23" builtinId="18"/>
-    <cellStyle name="見出し 4" xfId="24" builtinId="19"/>
-    <cellStyle name="60% - アクセント 5" xfId="25" builtinId="48"/>
-    <cellStyle name="チェックセル" xfId="26" builtinId="23"/>
-    <cellStyle name="40% - アクセント 1" xfId="27" builtinId="31"/>
-    <cellStyle name="集計" xfId="28" builtinId="25"/>
-    <cellStyle name="悪い" xfId="29" builtinId="27"/>
-    <cellStyle name="どちらでもない" xfId="30" builtinId="28"/>
-    <cellStyle name="アクセント 1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - アクセント 1" xfId="32" builtinId="30"/>
-    <cellStyle name="20% - アクセント 5" xfId="33" builtinId="46"/>
-    <cellStyle name="60% - アクセント 1" xfId="34" builtinId="32"/>
-    <cellStyle name="20% - アクセント 2" xfId="35" builtinId="34"/>
-    <cellStyle name="40% - アクセント 2" xfId="36" builtinId="35"/>
-    <cellStyle name="20% - アクセント 6" xfId="37" builtinId="50"/>
-    <cellStyle name="60% - アクセント 2" xfId="38" builtinId="36"/>
-    <cellStyle name="アクセント 3" xfId="39" builtinId="37"/>
-    <cellStyle name="20% - アクセント 3" xfId="40" builtinId="38"/>
-    <cellStyle name="40% - アクセント 3" xfId="41" builtinId="39"/>
-    <cellStyle name="60% - アクセント 3" xfId="42" builtinId="40"/>
-    <cellStyle name="アクセント 4" xfId="43" builtinId="41"/>
-    <cellStyle name="40% - アクセント 4" xfId="44" builtinId="43"/>
-    <cellStyle name="60% - アクセント 4" xfId="45" builtinId="44"/>
-    <cellStyle name="アクセント 5" xfId="46" builtinId="45"/>
-    <cellStyle name="40% - アクセント 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - アクセント 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1100,35 +488,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>5</v>
       </c>
@@ -1145,7 +533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10</v>
       </c>
@@ -1162,7 +550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>15</v>
       </c>
@@ -1179,7 +567,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>20</v>
       </c>
@@ -1196,7 +584,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>25</v>
       </c>
@@ -1213,7 +601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>30</v>
       </c>
@@ -1230,7 +618,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>40</v>
       </c>
@@ -1247,7 +635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>50</v>
       </c>
@@ -1264,7 +652,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>60</v>
       </c>
@@ -1281,7 +669,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>75</v>
       </c>
@@ -1298,7 +686,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>100</v>
       </c>
@@ -1315,7 +703,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>111</v>
       </c>
@@ -1332,7 +720,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>252</v>
       </c>
@@ -1349,7 +737,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1001</v>
       </c>
@@ -1369,7 +757,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1002</v>
       </c>
@@ -1389,7 +777,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1003</v>
       </c>
@@ -1409,7 +797,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1004</v>
       </c>
@@ -1429,7 +817,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1005</v>
       </c>
@@ -1449,7 +837,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1006</v>
       </c>
@@ -1469,7 +857,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1011</v>
       </c>
@@ -1486,7 +874,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1021</v>
       </c>
@@ -1503,8 +891,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>1031</v>
       </c>
       <c r="B23">
@@ -1520,7 +908,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1041</v>
       </c>
@@ -1537,7 +925,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1101</v>
       </c>
@@ -1554,7 +942,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2011</v>
       </c>
@@ -1571,7 +959,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2021</v>
       </c>
@@ -1588,7 +976,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2022</v>
       </c>
@@ -1605,7 +993,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2031</v>
       </c>
@@ -1622,7 +1010,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2101</v>
       </c>
@@ -1639,7 +1027,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3041</v>
       </c>
@@ -1656,7 +1044,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3041</v>
       </c>
@@ -1673,7 +1061,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3042</v>
       </c>
@@ -1690,7 +1078,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3042</v>
       </c>
@@ -1707,7 +1095,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3042</v>
       </c>
@@ -1724,7 +1112,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>3101</v>
       </c>
@@ -1741,7 +1129,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>3101</v>
       </c>
@@ -1758,7 +1146,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>3102</v>
       </c>
@@ -1775,7 +1163,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>3102</v>
       </c>
@@ -1792,7 +1180,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>3102</v>
       </c>
@@ -1809,7 +1197,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>3102</v>
       </c>
@@ -1826,7 +1214,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>4041</v>
       </c>
@@ -1843,7 +1231,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>4041</v>
       </c>
@@ -1860,7 +1248,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>4042</v>
       </c>
@@ -1877,7 +1265,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>4042</v>
       </c>
@@ -1894,7 +1282,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>4042</v>
       </c>
@@ -1911,7 +1299,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>4101</v>
       </c>
@@ -1928,7 +1316,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>4101</v>
       </c>
@@ -1945,7 +1333,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>4102</v>
       </c>
@@ -1962,7 +1350,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>4102</v>
       </c>
@@ -1979,7 +1367,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>4102</v>
       </c>
@@ -1996,7 +1384,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>4102</v>
       </c>
@@ -2013,7 +1401,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>5041</v>
       </c>
@@ -2030,7 +1418,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>5041</v>
       </c>
@@ -2047,7 +1435,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>5042</v>
       </c>
@@ -2064,7 +1452,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>5042</v>
       </c>
@@ -2081,7 +1469,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>5042</v>
       </c>
@@ -2098,7 +1486,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>5101</v>
       </c>
@@ -2115,7 +1503,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>5101</v>
       </c>
@@ -2132,7 +1520,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>5102</v>
       </c>
@@ -2149,7 +1537,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>5102</v>
       </c>
@@ -2166,7 +1554,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>5102</v>
       </c>
@@ -2183,7 +1571,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>5102</v>
       </c>
@@ -2200,7 +1588,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>6021</v>
       </c>
@@ -2217,7 +1605,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>6021</v>
       </c>
@@ -2234,7 +1622,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>6022</v>
       </c>
@@ -2251,7 +1639,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>6022</v>
       </c>
@@ -2268,7 +1656,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>6031</v>
       </c>
@@ -2285,7 +1673,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>6031</v>
       </c>
@@ -2302,7 +1690,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>6031</v>
       </c>
@@ -2319,7 +1707,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>6101</v>
       </c>
@@ -2336,7 +1724,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>6101</v>
       </c>
@@ -2353,7 +1741,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>11020</v>
       </c>
@@ -2370,7 +1758,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>11030</v>
       </c>
@@ -2387,7 +1775,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>11040</v>
       </c>
@@ -2404,7 +1792,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>12020</v>
       </c>
@@ -2421,7 +1809,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>12030</v>
       </c>
@@ -2438,7 +1826,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>12040</v>
       </c>
@@ -2455,7 +1843,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>13020</v>
       </c>
@@ -2472,7 +1860,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>13030</v>
       </c>
@@ -2489,7 +1877,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>13040</v>
       </c>
@@ -2506,7 +1894,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>14010</v>
       </c>
@@ -2523,7 +1911,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>14020</v>
       </c>
@@ -2540,7 +1928,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>14030</v>
       </c>
@@ -2557,7 +1945,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>15020</v>
       </c>
@@ -2574,7 +1962,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>15030</v>
       </c>
@@ -2591,7 +1979,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>15050</v>
       </c>
@@ -2608,7 +1996,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>20010</v>
       </c>
@@ -2625,7 +2013,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>20020</v>
       </c>
@@ -2642,7 +2030,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>20030</v>
       </c>
@@ -2659,7 +2047,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>20040</v>
       </c>
@@ -2677,28 +2065,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2706,7 +2093,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2714,7 +2101,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2722,7 +2109,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2730,7 +2117,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>11</v>
       </c>
@@ -2738,7 +2125,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>21</v>
       </c>
@@ -2746,7 +2133,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>22</v>
       </c>
@@ -2754,7 +2141,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>31</v>
       </c>
@@ -2762,7 +2149,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>61</v>
       </c>
@@ -2770,7 +2157,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>62</v>
       </c>
@@ -2778,7 +2165,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>63</v>
       </c>
@@ -2786,7 +2173,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>71</v>
       </c>
@@ -2794,7 +2181,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>101</v>
       </c>
@@ -2802,7 +2189,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>210</v>
       </c>
@@ -2811,7 +2198,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>